--- a/biology/Zoologie/Azuré_des_mouillères/Azuré_des_mouillères.xlsx
+++ b/biology/Zoologie/Azuré_des_mouillères/Azuré_des_mouillères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
+          <t>Azuré_des_mouillères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phengaris alcon
 L’Azuré des mouillères ou le Protée (Phengaris alcon)  est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Phengaris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
+          <t>Azuré_des_mouillères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,22 +524,16 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phengaris alcon nommé par Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phengaris alcon nommé par Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775.
 Synonymes :
 Papilio alcon Denis &amp; Schiffermüller, 1775
-Papilio mamers Bergsträsser, [1779]
+Papilio mamers Bergsträsser, 
 Glaucopsyche alcon (Denis &amp; Schiffermüller, 1775)
-Maculinea alcon (Denis &amp; Schiffermüller, 1775)[1],[2].
-Sous-espèces
-Phengaris alcon alcon dans le centre de l'Europe.
-Phengaris alcon jeniseiensis (Shjeljuzhko, 1928) dans le sud de la Sibérie.
-Phengaris alcon sevastos Rebel &amp; Zerny, 1931 dans les Carpates.
-Phengaris alcon xerophila Berger, 1946 dans le centre de l'Europe[1].
-Noms vernaculaires
-L’Azuré des mouillères ou Protée se nomme en anglais Alcon Blue, et en espagnol Hormiguera[1].
-</t>
+Maculinea alcon (Denis &amp; Schiffermüller, 1775),.</t>
         </is>
       </c>
     </row>
@@ -537,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
+          <t>Azuré_des_mouillères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +558,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phengaris alcon alcon dans le centre de l'Europe.
+Phengaris alcon jeniseiensis (Shjeljuzhko, 1928) dans le sud de la Sibérie.
+Phengaris alcon sevastos Rebel &amp; Zerny, 1931 dans les Carpates.
+Phengaris alcon xerophila Berger, 1946 dans le centre de l'Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré des mouillères ou Protée se nomme en anglais Alcon Blue, et en espagnol Hormiguera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu terne, brun grisâtre chez la femelle.
 Le revers est ocre orné de deux lignes de points noirs cerclés de blanc.
@@ -563,80 +647,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Espèces proches</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phengaris rebeli est très semblable.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille.
-Les chenilles sont soignées par des fourmis, Myrmica ruginodis, Myrmica rubra et Myrmica scabrinodis[3].  En effet, quelques jours après être devenue une chenille, elle émet des phéromones comparables à celles du genre de fourmis Myrmica. Ces dernières croient alors qu'une larve de fourmi est sortie de la fourmilière et la ramène. Ce n'est qu'en devenant un papillon, que la production de phéromone cesse l'obligeant à quitter la fourmilière[4].
-Il vole en une génération, de mi-juin à mi-août[3].
-Plantes hôtes
-Ses plantes hôtes sont des  Gentiana : Gentiana pneumonanthe et Gentiana asclepiadea[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_mouill%C3%A8res</t>
+          <t>Azuré_des_mouillères</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,17 +668,198 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phengaris rebeli est très semblable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille.
+Les chenilles sont soignées par des fourmis, Myrmica ruginodis, Myrmica rubra et Myrmica scabrinodis.  En effet, quelques jours après être devenue une chenille, elle émet des phéromones comparables à celles du genre de fourmis Myrmica. Ces dernières croient alors qu'une larve de fourmi est sortie de la fourmilière et la ramène. Ce n'est qu'en devenant un papillon, que la production de phéromone cesse l'obligeant à quitter la fourmilière.
+Il vole en une génération, de mi-juin à mi-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des  Gentiana : Gentiana pneumonanthe et Gentiana asclepiadea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud et le centre de l'Europe du Nord de l'Espagne et de l'Italie aux États Baltes, en Turquie, au Caucase et dans l'Himalaya[3],[1].
-En France métropolitaine il serait présent dans une majorité de départements, de la Bretagne aux Alpes, dans les Pyrénées mais absent des départements les plus au sud et les plus au nord[3].
-Biotope
-Il réside dans les prairies humides, les zones inondables proches des rivières et des lacs, les mouillères.
-Protection
-L'Azuré des mouillères est une espèce protégée en France (article 3 de l'arrété du 23 avril 2007)[5],[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud et le centre de l'Europe du Nord de l'Espagne et de l'Italie aux États Baltes, en Turquie, au Caucase et dans l'Himalaya,.
+En France métropolitaine il serait présent dans une majorité de départements, de la Bretagne aux Alpes, dans les Pyrénées mais absent des départements les plus au sud et les plus au nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies humides, les zones inondables proches des rivières et des lacs, les mouillères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_des_mouillères</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_mouill%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azuré des mouillères est une espèce protégée en France (article 3 de l'arrété du 23 avril 2007),.
 </t>
         </is>
       </c>
